--- a/biology/Zoologie/Anguilliforme/Anguilliforme.xlsx
+++ b/biology/Zoologie/Anguilliforme/Anguilliforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anguilliformes sont un ordre de poissons téléostéens serpentiformes tels que les anguilles, les congres et les murènes.
-Comprenant 21 familles, ils sont, dans le groupe des téléostéens, le groupe le plus diversifié[1]. Ils se trouvent dans tous les océans[1].
+Comprenant 21 familles, ils sont, dans le groupe des téléostéens, le groupe le plus diversifié. Ils se trouvent dans tous les océans.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des poissons allongés, sans nageoires pelviennes et souvent sans nageoires pectorales (sinon, elles sont en position midlatérale ou plus hautes, et squelettiquement détachées du crâne, sans post-temporal). Les nageoires dorsale et anale sont confluentes avec la caudale (qui est parfois dépourvue de rayons). Ces poissons n'ont généralement pas d'écailles, sinon elles sont cycloïdes. Les ouvertures branchiales sont généralement réduites, et les branchies en position très antérieures par rapport à la tête, dépourvus de peignes. De nombreux os sont fusionnés ou absents[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des poissons allongés, sans nageoires pelviennes et souvent sans nageoires pectorales (sinon, elles sont en position midlatérale ou plus hautes, et squelettiquement détachées du crâne, sans post-temporal). Les nageoires dorsale et anale sont confluentes avec la caudale (qui est parfois dépourvue de rayons). Ces poissons n'ont généralement pas d'écailles, sinon elles sont cycloïdes. Les ouvertures branchiales sont généralement réduites, et les branchies en position très antérieures par rapport à la tête, dépourvus de peignes. De nombreux os sont fusionnés ou absents. 
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie basée sur Johnson et al. 2012[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie basée sur Johnson et al. 2012.
 </t>
         </is>
       </c>
